--- a/arquivos_postos/output/21309025000141.xlsx
+++ b/arquivos_postos/output/21309025000141.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>Afericao</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,6 +500,11 @@
           <t>25,895</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -532,6 +542,11 @@
           <t>8,083</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -569,6 +584,11 @@
           <t>43,049</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -606,6 +626,11 @@
           <t>42,631</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -643,6 +668,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -680,6 +710,11 @@
           <t>10,204</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -717,6 +752,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -754,6 +794,11 @@
           <t>1,000</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -791,6 +836,11 @@
           <t>7,632</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -828,6 +878,11 @@
           <t>5,271</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -865,6 +920,11 @@
           <t>1,310</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -902,6 +962,11 @@
           <t>1,600</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -939,6 +1004,11 @@
           <t>1,872</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -976,6 +1046,11 @@
           <t>9,366</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1013,6 +1088,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1050,6 +1130,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1087,6 +1172,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1124,6 +1214,11 @@
           <t>5,011</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1161,6 +1256,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1196,6 +1296,11 @@
       <c r="G21" t="inlineStr">
         <is>
           <t>27,514</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1244,6 +1349,11 @@
           <t>Recebimento</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1271,6 +1381,11 @@
           <t>140.000,000</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1298,6 +1413,11 @@
           <t>19.500,000</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1325,6 +1445,11 @@
           <t>11.500,000</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1352,6 +1477,11 @@
           <t>10.000,000</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1377,6 +1507,11 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>65.500,000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
         </is>
       </c>
     </row>
